--- a/Unity/Assets/Config/Excel/test.xlsx
+++ b/Unity/Assets/Config/Excel/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>所属ai</t>
   </si>
@@ -71,6 +71,38 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +132,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -208,24 +232,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,115 +534,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="7.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <f>C5*100+D5</f>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
+        <f>D6*100+E6</f>
         <v>101</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <f>C6*100+D6</f>
-        <v>102</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <f>C7*100+D7</f>
-        <v>201</v>
+        <f>D7*100+E7</f>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -620,7 +665,28 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f>D8*100+E8</f>
+        <v>201</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/test.xlsx
+++ b/Unity/Assets/Config/Excel/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>所属ai</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +545,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,6 +661,9 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -671,6 +682,9 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -688,6 +702,9 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
